--- a/fuzzy-ts-opt/Results/geral.xlsx
+++ b/fuzzy-ts-opt/Results/geral.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\fuzzy-ts-opt\fuzzy-ts-opt\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBA05E8-2385-42E9-B614-B84D13F34F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C65AEDA-2A69-4E1D-82CD-809CCA526FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-120" windowWidth="19740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -237,13 +237,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1153,9 @@
       <c r="D23" s="1">
         <v>400.17669999999998</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>17.006209999999999</v>
+      </c>
       <c r="F23" s="1">
         <v>2.7280370000000002E-2</v>
       </c>
@@ -1172,7 +1174,9 @@
       <c r="D24" s="5">
         <v>465.5795</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5">
+        <v>15.492559999999999</v>
+      </c>
       <c r="F24" s="5">
         <v>2.514299E-2</v>
       </c>
@@ -1191,7 +1195,9 @@
       <c r="D25" s="5">
         <v>1824.7929999999999</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5">
+        <v>41.015610000000002</v>
+      </c>
       <c r="F25" s="5">
         <v>6.3134179999999998E-2</v>
       </c>
@@ -1210,7 +1216,9 @@
       <c r="D26" s="5">
         <v>46.176699999999997</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5">
+        <v>6.5522229999999997</v>
+      </c>
       <c r="F26" s="5">
         <v>9.8341639999999994E-3</v>
       </c>
@@ -1234,6 +1242,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1245,7 +1265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="G3:G6">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1257,7 +1277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G6">
+  <conditionalFormatting sqref="F8:F11">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1269,7 +1289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F11">
+  <conditionalFormatting sqref="G8:G11">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1281,7 +1301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G11">
+  <conditionalFormatting sqref="D8:D11">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1293,7 +1313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D11">
+  <conditionalFormatting sqref="D13:D16">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1305,7 +1325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D16">
+  <conditionalFormatting sqref="F13:F16">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1317,7 +1337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F16">
+  <conditionalFormatting sqref="G13:G16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1329,7 +1349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G16">
+  <conditionalFormatting sqref="D18:D21">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1341,7 +1361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D21">
+  <conditionalFormatting sqref="F18:F21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1353,7 +1373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F21">
+  <conditionalFormatting sqref="G18:G21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1365,7 +1385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G21">
+  <conditionalFormatting sqref="D23:D26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1377,7 +1397,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D26">
+  <conditionalFormatting sqref="F23:F26">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1389,7 +1409,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F26">
+  <conditionalFormatting sqref="G23:G26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1401,7 +1421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G26">
+  <conditionalFormatting sqref="E23:E26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
